--- a/src/CruiseBundle/Resources/report/report_agent.xlsx
+++ b/src/CruiseBundle/Resources/report/report_agent.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Отчет агента №</t>
   </si>
@@ -31,12 +31,6 @@
   </si>
   <si>
     <t>Оплата за вычетом</t>
-  </si>
-  <si>
-    <t>Размер АВ:</t>
-  </si>
-  <si>
-    <t>Агентское вознаграждение 10%</t>
   </si>
   <si>
     <t>1. ОТЧЕТ</t>
@@ -138,9 +132,6 @@
     <t>Стоимость тура с учетом скидки</t>
   </si>
   <si>
-    <t>_____________________________________, именуемое в дальнейшем "Агент", в лице ______________ , действующего на основании ________________ , представляет, а ООО "Речное Агентство", именуемое в дальнейшем "Компания",  в лице Генерального директора _____________________________, действующего на основании Устава, принимает настоящий отчет об исполнении агентского поручения по агентскому договору ______________________________________</t>
-  </si>
-  <si>
     <t>Агентское вознаграждение</t>
   </si>
   <si>
@@ -153,10 +144,13 @@
     <t>Генеральный  директор</t>
   </si>
   <si>
-    <t>___________________________</t>
-  </si>
-  <si>
     <t>За отчетный месяц Агентом произведен возврат средств по следующим турам:</t>
+  </si>
+  <si>
+    <t>_____________________________________, именуемое в дальнейшем "Агент", в лице ______________ , действующего на основании ________________ , представляет, а ООО "Речное Агентство", именуемое в дальнейшем "Компания",  в лице Генерального директора Гладилиной Любови Владимировны, действующего на основании Устава, принимает настоящий отчет об исполнении агентского поручения по агентскому договору ______________________________________</t>
+  </si>
+  <si>
+    <t>Гладилина Л. В.</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1063,7 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -1123,12 +1117,8 @@
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -1151,7 +1141,7 @@
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1165,7 +1155,7 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1191,30 +1181,30 @@
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="D14" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="E14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -1224,16 +1214,16 @@
       <c r="D15" s="40"/>
       <c r="E15" s="41"/>
       <c r="F15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="I15" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J15" s="43"/>
     </row>
@@ -1245,7 +1235,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
@@ -1255,7 +1245,7 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -1281,7 +1271,7 @@
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -1295,7 +1285,7 @@
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -1333,7 +1323,7 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1347,7 +1337,7 @@
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1358,22 +1348,22 @@
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="47" t="s">
         <v>21</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>23</v>
       </c>
       <c r="G25" s="47"/>
     </row>
@@ -1384,10 +1374,10 @@
       <c r="D26" s="40"/>
       <c r="E26" s="41"/>
       <c r="F26" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1401,7 +1391,7 @@
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -1417,7 +1407,7 @@
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -1427,7 +1417,7 @@
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,7 +1434,7 @@
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -1470,14 +1460,14 @@
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="27"/>
@@ -1486,18 +1476,18 @@
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="28"/>
@@ -1528,32 +1518,32 @@
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J39" s="28"/>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
